--- a/biology/Botanique/Ranunculus_trichophyllus/Ranunculus_trichophyllus.xlsx
+++ b/biology/Botanique/Ranunculus_trichophyllus/Ranunculus_trichophyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Ranunculus trichophyllus, Renoncule à feuille capillaire, est une espèce de plantes de la famille des Ranunculaceae.
-Selon Catalogue of Life                                   (29 juin 2019)[3] et Tropicos                                           (29 juin 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Catalogue of Life                                   (29 juin 2019) et Tropicos                                           (29 juin 2019) (Attention liste brute contenant possiblement des synonymes) :
 Ranunculus trichophyllus subsp. drouetii Clapham
 Ranunculus trichophyllus subsp. eradicatus (Laest.) C.D.K.Cook
 Ranunculus trichophyllus subsp. lutulentus Vierh.
